--- a/test_請求管理/已完成/test_請求管理_データ読込みand入金導入履歴.xlsx
+++ b/test_請求管理/已完成/test_請求管理_データ読込みand入金導入履歴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="41" r:id="rId1"/>
@@ -21241,7 +21241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -21635,8 +21635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM219"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test_請求管理/已完成/test_請求管理_データ読込みand入金導入履歴.xlsx
+++ b/test_請求管理/已完成/test_請求管理_データ読込みand入金導入履歴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="41" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9072" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="1078">
   <si>
     <t>URL:</t>
   </si>
@@ -6041,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL196"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6501,9 +6501,7 @@
       <c r="B63" s="191"/>
     </row>
     <row r="64" spans="1:8" ht="14.25">
-      <c r="A64" s="187" t="s">
-        <v>159</v>
-      </c>
+      <c r="A64" s="187"/>
       <c r="B64" s="191" t="s">
         <v>493</v>
       </c>
@@ -21635,8 +21633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22091,9 +22089,7 @@
       <c r="B63" s="47"/>
     </row>
     <row r="64" spans="1:75" s="46" customFormat="1" ht="14.25">
-      <c r="A64" s="53" t="s">
-        <v>159</v>
-      </c>
+      <c r="A64" s="53"/>
       <c r="B64" s="52" t="s">
         <v>493</v>
       </c>

--- a/test_請求管理/已完成/test_請求管理_データ読込みand入金導入履歴.xlsx
+++ b/test_請求管理/已完成/test_請求管理_データ読込みand入金導入履歴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="757" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="41" r:id="rId1"/>
@@ -4323,9 +4323,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/header/ul/li[5]/ul/li/div/ul/li[6]/a</t>
-  </si>
-  <si>
     <t>繰越一覧</t>
   </si>
   <si>
@@ -4639,6 +4636,9 @@
   <si>
     <t>SELECT id,created_date,updated_date,is_deleted,deleted_date,car_nominee_different_reason,car_maker,car_model,car_color,car_no_plate,car_length,car_width,car_height,car_weight,car_min_height,car_f_value,car_r_value,car_owner,car_owner_relation,car_owner_address,car_owner_tel,car_comment,insurance_voluntary_join_status,insurance_voluntary_amount_no_limit,insurance_voluntary_limit_amount,insurance_voluntary_expire_date,insurance_mandatory_expire_date,car_change_kbn,car_change_required_receipt,car_change_payment_kbn,contractor_id,current_contract_id,parking_lot_id,parking_position_id,process_id,commission_pay_date,new_receipt_return_date,payment_change_start_date,payee_bank_account_id,key_change_kbn,key_change_pay_date,key_change_payment_kbn,receipt_change_car_id,receipt_change_car_comment,receipt_change_owner,receipt_change_owner_address,receipt_change_owner_relation,receipt_change_owner_tel,receipt_change_pay_date,receipt_change_payment_kbn,receipt_change_return_date,key_change_order_date,key_change_receive_date,price_raising_id,repayment_reason,repayment_amount,repayment_pay_date,repayment_completion_date,repayment_expect_date,repayment_received_amount,repayment_request_amount,repayment_account_holder,repayment_account_number,repayment_account_type,repayment_bank_name,repayment_branch_name,repayment_defect_position_id,insurance_change_car_id,insurance_return_date,insurance_kbn,car_use_base_address2,car_use_base_comment,car_use_base_fax,car_use_base_kana,car_use_base_name,car_use_base_post_code,car_use_base_tel,car_user_address1,car_user_address2,car_user_base,car_user_base_type,car_user_comment,car_user_fax,car_user_kana,car_user_kbn,car_user_name,car_user_phone,car_user_post_code,car_user_relation,car_user_tel,repayment_for_request_id FROM ap_process_detail</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/header/ul/li[5]/ul/li/div/ul/li[7]/a</t>
   </si>
 </sst>
 </file>
@@ -6041,7 +6041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -17283,7 +17283,7 @@
         <v>778</v>
       </c>
       <c r="R22" s="212" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S22" s="190" t="s">
         <v>163</v>
@@ -17339,7 +17339,7 @@
         <v>778</v>
       </c>
       <c r="R23" s="212" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S23" s="190" t="s">
         <v>163</v>
@@ -17675,7 +17675,7 @@
         <v>779</v>
       </c>
       <c r="R29" s="212" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S29" s="197" t="s">
         <v>690</v>
@@ -18187,7 +18187,7 @@
     </row>
     <row r="39" spans="1:96" s="213" customFormat="1">
       <c r="B39" s="215" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C39" s="215" t="s">
         <v>236</v>
@@ -18223,13 +18223,13 @@
         <v>1000</v>
       </c>
       <c r="N39" s="215" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O39" s="215" t="s">
         <v>214</v>
       </c>
       <c r="P39" s="215" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q39" s="215" t="s">
         <v>778</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="40" spans="1:96" s="213" customFormat="1">
       <c r="B40" s="215" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C40" s="215" t="s">
         <v>236</v>
@@ -18261,10 +18261,10 @@
         <v>739</v>
       </c>
       <c r="H40" s="215" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I40" s="215" t="s">
         <v>1026</v>
-      </c>
-      <c r="I40" s="215" t="s">
-        <v>1027</v>
       </c>
       <c r="J40" s="215" t="s">
         <v>214</v>
@@ -18279,13 +18279,13 @@
         <v>1000</v>
       </c>
       <c r="N40" s="215" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O40" s="215" t="s">
         <v>73</v>
       </c>
       <c r="P40" s="215" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q40" s="214" t="s">
         <v>163</v>
@@ -18373,7 +18373,7 @@
         <v>238</v>
       </c>
       <c r="I45" s="218" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J45" s="218" t="s">
         <v>439</v>
@@ -18495,7 +18495,7 @@
         <v>406</v>
       </c>
       <c r="I46" s="218" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J46" s="218" t="s">
         <v>994</v>
@@ -18617,7 +18617,7 @@
         <v>546</v>
       </c>
       <c r="I47" s="218" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J47" s="218" t="s">
         <v>439</v>
@@ -19631,7 +19631,7 @@
         <v>163</v>
       </c>
       <c r="G62" s="220" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H62" s="220" t="s">
         <v>215</v>
@@ -19640,7 +19640,7 @@
         <v>190</v>
       </c>
       <c r="J62" s="220" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K62" s="224" t="s">
         <v>163</v>
@@ -19739,7 +19739,7 @@
         <v>163</v>
       </c>
       <c r="AQ62" s="225" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AR62" s="225" t="s">
         <v>995</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="65" spans="1:96">
       <c r="B65" s="233" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C65" s="194"/>
       <c r="D65" s="194"/>
@@ -20276,7 +20276,7 @@
         <v>163</v>
       </c>
       <c r="BD67" s="225" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="BE67" s="225" t="s">
         <v>995</v>
@@ -20459,10 +20459,10 @@
         <v>163</v>
       </c>
       <c r="G72" s="225" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H72" s="225" t="s">
         <v>1038</v>
-      </c>
-      <c r="H72" s="225" t="s">
-        <v>1039</v>
       </c>
       <c r="I72" s="225" t="s">
         <v>1000</v>
@@ -20471,7 +20471,7 @@
         <v>163</v>
       </c>
       <c r="K72" s="225" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L72" s="225" t="s">
         <v>214</v>
@@ -20583,10 +20583,10 @@
         <v>163</v>
       </c>
       <c r="G73" s="225" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H73" s="225" t="s">
         <v>1041</v>
-      </c>
-      <c r="H73" s="225" t="s">
-        <v>1042</v>
       </c>
       <c r="I73" s="225" t="s">
         <v>1000</v>
@@ -20595,7 +20595,7 @@
         <v>163</v>
       </c>
       <c r="K73" s="225" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L73" s="225" t="s">
         <v>214</v>
@@ -20707,10 +20707,10 @@
         <v>163</v>
       </c>
       <c r="G74" s="225" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H74" s="225" t="s">
         <v>1044</v>
-      </c>
-      <c r="H74" s="225" t="s">
-        <v>1045</v>
       </c>
       <c r="I74" s="225" t="s">
         <v>1000</v>
@@ -20719,7 +20719,7 @@
         <v>163</v>
       </c>
       <c r="K74" s="225" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L74" s="225" t="s">
         <v>214</v>
@@ -20831,10 +20831,10 @@
         <v>163</v>
       </c>
       <c r="G75" s="225" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H75" s="225" t="s">
         <v>1047</v>
-      </c>
-      <c r="H75" s="225" t="s">
-        <v>1048</v>
       </c>
       <c r="I75" s="225" t="s">
         <v>1000</v>
@@ -20843,7 +20843,7 @@
         <v>163</v>
       </c>
       <c r="K75" s="225" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L75" s="225" t="s">
         <v>214</v>
@@ -20955,10 +20955,10 @@
         <v>163</v>
       </c>
       <c r="G76" s="225" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H76" s="225" t="s">
         <v>1050</v>
-      </c>
-      <c r="H76" s="225" t="s">
-        <v>1051</v>
       </c>
       <c r="I76" s="225" t="s">
         <v>1000</v>
@@ -20967,7 +20967,7 @@
         <v>163</v>
       </c>
       <c r="K76" s="225" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L76" s="225" t="s">
         <v>214</v>
@@ -21072,8 +21072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21158,7 +21158,7 @@
         <v>952</v>
       </c>
       <c r="B10" s="174" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="186" customFormat="1" ht="14.25">
@@ -21183,7 +21183,7 @@
         <v>972</v>
       </c>
       <c r="H14" s="186" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25">
@@ -21191,10 +21191,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H15" s="186" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25">
@@ -21202,7 +21202,7 @@
         <v>952</v>
       </c>
       <c r="B16" s="174" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
@@ -21213,12 +21213,12 @@
         <v>731</v>
       </c>
       <c r="H17" s="186" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="186" customFormat="1" ht="14.25">
       <c r="A18" s="199" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="186" customFormat="1" ht="14.25">
@@ -21226,7 +21226,7 @@
         <v>952</v>
       </c>
       <c r="B19" s="174" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -21431,10 +21431,10 @@
     </row>
     <row r="15" spans="2:64" s="112" customFormat="1" ht="12">
       <c r="B15" s="174" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D15" s="174" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E15" s="174"/>
       <c r="F15" s="174"/>
@@ -37148,43 +37148,43 @@
         <v>214</v>
       </c>
       <c r="H23" s="229" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I23" s="229" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="229" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K23" s="229" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L23" s="229" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M23" s="229" t="s">
         <v>1054</v>
-      </c>
-      <c r="K23" s="229" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L23" s="229" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M23" s="229" t="s">
-        <v>1055</v>
       </c>
       <c r="N23" s="229" t="s">
         <v>632</v>
       </c>
       <c r="O23" s="229" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P23" s="229" t="s">
         <v>1056</v>
       </c>
-      <c r="P23" s="229" t="s">
+      <c r="Q23" s="229" t="s">
         <v>1057</v>
-      </c>
-      <c r="Q23" s="229" t="s">
-        <v>1058</v>
       </c>
       <c r="R23" s="229" t="s">
         <v>214</v>
       </c>
       <c r="S23" s="229" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T23" s="229" t="s">
         <v>1059</v>
-      </c>
-      <c r="T23" s="229" t="s">
-        <v>1060</v>
       </c>
       <c r="U23" s="229" t="s">
         <v>214</v>
@@ -37193,13 +37193,13 @@
         <v>214</v>
       </c>
       <c r="W23" s="229" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="X23" s="228" t="s">
         <v>590</v>
       </c>
       <c r="Y23" s="229" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z23" s="229" t="s">
         <v>214</v>
@@ -37374,13 +37374,13 @@
         <v>215</v>
       </c>
       <c r="H29" s="232" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I29" s="232" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J29" s="232" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K29" s="232" t="s">
         <v>214</v>
@@ -37389,31 +37389,31 @@
         <v>148</v>
       </c>
       <c r="M29" s="232" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N29" s="232" t="s">
         <v>73</v>
       </c>
       <c r="O29" s="231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="P29" s="231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q29" s="231" t="s">
         <v>610</v>
       </c>
       <c r="R29" s="231" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="S29" s="232" t="s">
         <v>633</v>
       </c>
       <c r="T29" s="232" t="s">
+        <v>1066</v>
+      </c>
+      <c r="U29" s="232" t="s">
         <v>1067</v>
-      </c>
-      <c r="U29" s="232" t="s">
-        <v>1068</v>
       </c>
       <c r="V29" s="232" t="s">
         <v>632</v>
@@ -37425,13 +37425,13 @@
         <v>635</v>
       </c>
       <c r="Y29" s="231" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Z29" s="231" t="s">
         <v>610</v>
       </c>
       <c r="AA29" s="232" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AB29" s="232" t="s">
         <v>406</v>
@@ -37469,7 +37469,7 @@
         <v>215</v>
       </c>
       <c r="H30" s="232" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I30" s="232" t="s">
         <v>638</v>
@@ -37484,28 +37484,28 @@
         <v>148</v>
       </c>
       <c r="M30" s="232" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N30" s="232" t="s">
         <v>73</v>
       </c>
       <c r="O30" s="231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="P30" s="231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q30" s="231" t="s">
         <v>610</v>
       </c>
       <c r="R30" s="231" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="S30" s="232" t="s">
         <v>633</v>
       </c>
       <c r="T30" s="232" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="U30" s="232" t="s">
         <v>636</v>
@@ -37520,13 +37520,13 @@
         <v>635</v>
       </c>
       <c r="Y30" s="231" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Z30" s="231" t="s">
         <v>610</v>
       </c>
       <c r="AA30" s="232" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AB30" s="232" t="s">
         <v>406</v>
@@ -37567,7 +37567,7 @@
         <v>637</v>
       </c>
       <c r="I31" s="232" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J31" s="232" t="s">
         <v>683</v>
@@ -37585,16 +37585,16 @@
         <v>73</v>
       </c>
       <c r="O31" s="231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="P31" s="231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q31" s="231" t="s">
         <v>610</v>
       </c>
       <c r="R31" s="231" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="S31" s="232" t="s">
         <v>633</v>
@@ -37615,13 +37615,13 @@
         <v>635</v>
       </c>
       <c r="Y31" s="231" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Z31" s="231" t="s">
         <v>610</v>
       </c>
       <c r="AA31" s="232" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AB31" s="232" t="s">
         <v>406</v>
@@ -39066,7 +39066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -39626,7 +39626,7 @@
         <v>972</v>
       </c>
       <c r="H59" s="186" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="169" customFormat="1" ht="14.25">
@@ -43169,7 +43169,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43336,10 +43336,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="186" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H19" s="186" t="s">
         <v>1002</v>
-      </c>
-      <c r="H19" s="186" t="s">
-        <v>1003</v>
       </c>
       <c r="L19" s="176"/>
     </row>
@@ -43673,7 +43673,7 @@
         <v>406</v>
       </c>
       <c r="AC4" s="197" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AD4" s="197">
         <v>1</v>
@@ -43958,7 +43958,7 @@
         <v>406</v>
       </c>
       <c r="AC7" s="197" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AD7" s="190" t="s">
         <v>163</v>
@@ -44671,7 +44671,7 @@
         <v>778</v>
       </c>
       <c r="R22" s="203" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S22" s="202" t="s">
         <v>163</v>
@@ -44727,7 +44727,7 @@
         <v>778</v>
       </c>
       <c r="R23" s="203" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S23" s="202" t="s">
         <v>163</v>
@@ -45063,7 +45063,7 @@
         <v>779</v>
       </c>
       <c r="R29" s="203" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S29" s="203" t="s">
         <v>545</v>
@@ -45611,13 +45611,13 @@
         <v>1000</v>
       </c>
       <c r="N39" s="206" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O39" s="206" t="s">
         <v>214</v>
       </c>
       <c r="P39" s="206" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q39" s="206" t="s">
         <v>778</v>
@@ -45649,10 +45649,10 @@
         <v>739</v>
       </c>
       <c r="H40" s="206" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I40" s="206" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J40" s="206" t="s">
         <v>214</v>
@@ -45667,13 +45667,13 @@
         <v>1000</v>
       </c>
       <c r="N40" s="206" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O40" s="206" t="s">
         <v>73</v>
       </c>
       <c r="P40" s="206" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Q40" s="205" t="s">
         <v>163</v>
@@ -45762,7 +45762,7 @@
         <v>238</v>
       </c>
       <c r="I46" s="208" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J46" s="208" t="s">
         <v>439</v>
@@ -45884,7 +45884,7 @@
         <v>406</v>
       </c>
       <c r="I47" s="208" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J47" s="208" t="s">
         <v>994</v>
@@ -47372,10 +47372,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="169" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H11" s="186" t="s">
         <v>1004</v>
-      </c>
-      <c r="H11" s="186" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25">
@@ -47386,7 +47386,7 @@
         <v>731</v>
       </c>
       <c r="H12" s="186" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25">
@@ -47436,19 +47436,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="186" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H20" s="186" t="s">
         <v>1007</v>
-      </c>
-      <c r="H20" s="186" t="s">
-        <v>1008</v>
       </c>
       <c r="L20" s="176"/>
     </row>
     <row r="21" spans="1:12" ht="14.25">
       <c r="A21" s="199" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B21" s="174" t="s">
         <v>1009</v>
-      </c>
-      <c r="B21" s="174" t="s">
-        <v>1010</v>
       </c>
     </row>
   </sheetData>
